--- a/simulation_data/two_step_algorithm/2s_error_level_13_percent_water_40.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_13_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.07725239820131</v>
+        <v>93.59983749151426</v>
       </c>
       <c r="D2" t="n">
-        <v>18.49263638095828</v>
+        <v>15.50022359158076</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>93.57595343631017</v>
+        <v>94.06865953758161</v>
       </c>
       <c r="D3" t="n">
-        <v>19.30473738248135</v>
+        <v>14.98472980529308</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.84855344811395</v>
+        <v>91.37581035395442</v>
       </c>
       <c r="D4" t="n">
-        <v>16.71819421222852</v>
+        <v>20.63080376422003</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.94246246788857</v>
+        <v>90.70166995442607</v>
       </c>
       <c r="D5" t="n">
-        <v>20.54383824763841</v>
+        <v>16.59463367094021</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>91.78586004360672</v>
+        <v>88.6136266860246</v>
       </c>
       <c r="D6" t="n">
-        <v>18.36321871674707</v>
+        <v>16.77381017194516</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.9333425418386</v>
+        <v>88.02789146725259</v>
       </c>
       <c r="D7" t="n">
-        <v>16.99487015542662</v>
+        <v>18.6923305154201</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.51957424004453</v>
+        <v>85.49331538857795</v>
       </c>
       <c r="D8" t="n">
-        <v>16.81781540576734</v>
+        <v>16.96854988193177</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.06888493710753</v>
+        <v>86.87245885359043</v>
       </c>
       <c r="D9" t="n">
-        <v>18.75949458404594</v>
+        <v>17.65336212530612</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>88.18483555546035</v>
+        <v>84.57580732963615</v>
       </c>
       <c r="D10" t="n">
-        <v>19.05036338999904</v>
+        <v>17.79454146152894</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>86.4116106238253</v>
+        <v>81.35924850780142</v>
       </c>
       <c r="D11" t="n">
-        <v>19.68817281219491</v>
+        <v>20.403503870405</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>85.15465020131901</v>
+        <v>83.09187296739069</v>
       </c>
       <c r="D12" t="n">
-        <v>18.92337529030925</v>
+        <v>17.95914810652154</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.90988435379266</v>
+        <v>82.92742962583094</v>
       </c>
       <c r="D13" t="n">
-        <v>17.83642330107719</v>
+        <v>16.85633665002989</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>82.46808604681335</v>
+        <v>78.87180013875081</v>
       </c>
       <c r="D14" t="n">
-        <v>17.99498801999108</v>
+        <v>17.33637293359801</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.11370988287794</v>
+        <v>79.5349186167541</v>
       </c>
       <c r="D15" t="n">
-        <v>17.85841399619975</v>
+        <v>16.46463181344496</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>79.54795603572326</v>
+        <v>77.76536057157278</v>
       </c>
       <c r="D16" t="n">
-        <v>16.55553959336704</v>
+        <v>16.4406935166142</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.13883307903556</v>
+        <v>76.55088753463606</v>
       </c>
       <c r="D17" t="n">
-        <v>19.00246472910427</v>
+        <v>17.35456529840554</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>77.05588753019084</v>
+        <v>74.8960086185571</v>
       </c>
       <c r="D18" t="n">
-        <v>15.06334425874113</v>
+        <v>18.16056567813586</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>76.95484510152428</v>
+        <v>73.4871157676294</v>
       </c>
       <c r="D19" t="n">
-        <v>20.63415704165681</v>
+        <v>15.99291020722669</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.93818062874914</v>
+        <v>75.48513581346998</v>
       </c>
       <c r="D20" t="n">
-        <v>18.29680043573068</v>
+        <v>17.14328469882393</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.79439063132224</v>
+        <v>73.21905248351426</v>
       </c>
       <c r="D21" t="n">
-        <v>17.70833619520973</v>
+        <v>17.95132691498375</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.15324648352932</v>
+        <v>70.84480302567137</v>
       </c>
       <c r="D22" t="n">
-        <v>17.32053880046056</v>
+        <v>16.75642062551114</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>66.93177493565172</v>
+        <v>71.60676273537366</v>
       </c>
       <c r="D23" t="n">
-        <v>18.01220707531706</v>
+        <v>17.5637548796674</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.52560900867121</v>
+        <v>69.1924129098615</v>
       </c>
       <c r="D24" t="n">
-        <v>19.14239057306637</v>
+        <v>18.17312310041501</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.94992663469944</v>
+        <v>70.4208761098668</v>
       </c>
       <c r="D25" t="n">
-        <v>17.9156973729621</v>
+        <v>16.76357585848931</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>70.50504140439052</v>
+        <v>68.68862607844044</v>
       </c>
       <c r="D26" t="n">
-        <v>17.96482614503833</v>
+        <v>18.18360159967489</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.79066457274223</v>
+        <v>63.35680207730386</v>
       </c>
       <c r="D27" t="n">
-        <v>17.10497817620662</v>
+        <v>17.86894771108511</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.25964333943584</v>
+        <v>63.66713661288094</v>
       </c>
       <c r="D28" t="n">
-        <v>20.64219687376756</v>
+        <v>16.28071265189253</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>61.88518695813096</v>
+        <v>64.2403637620105</v>
       </c>
       <c r="D29" t="n">
-        <v>15.95303946972668</v>
+        <v>17.19656021204501</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.71147464207033</v>
+        <v>60.02404800994846</v>
       </c>
       <c r="D30" t="n">
-        <v>18.17838135478205</v>
+        <v>17.95904723532621</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>63.04077711658361</v>
+        <v>59.91762413986498</v>
       </c>
       <c r="D31" t="n">
-        <v>17.87519828745084</v>
+        <v>16.78744649635148</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>62.97232195215084</v>
+        <v>62.85328808738915</v>
       </c>
       <c r="D32" t="n">
-        <v>18.98071161549526</v>
+        <v>17.40218459147885</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.44041509253611</v>
+        <v>60.0069084375944</v>
       </c>
       <c r="D33" t="n">
-        <v>18.22871257578829</v>
+        <v>15.52931013383227</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.90803325211809</v>
+        <v>58.01742663349967</v>
       </c>
       <c r="D34" t="n">
-        <v>17.44257722836874</v>
+        <v>16.61886265562097</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>63.10221426324754</v>
+        <v>59.71475442311585</v>
       </c>
       <c r="D35" t="n">
-        <v>16.68507706802208</v>
+        <v>16.89606284226802</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>54.09835543826587</v>
+        <v>56.50416852933877</v>
       </c>
       <c r="D36" t="n">
-        <v>20.97190520599297</v>
+        <v>16.53426627436932</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>57.1393118485128</v>
+        <v>53.21126157726239</v>
       </c>
       <c r="D37" t="n">
-        <v>18.22013397610624</v>
+        <v>18.39612841347951</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>56.36914178076511</v>
+        <v>54.57662358098482</v>
       </c>
       <c r="D38" t="n">
-        <v>18.85876538282487</v>
+        <v>16.94589625946364</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.96268108815948</v>
+        <v>52.21870765254153</v>
       </c>
       <c r="D39" t="n">
-        <v>17.80697370620688</v>
+        <v>17.06072002551183</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.32046135147369</v>
+        <v>49.16854852867767</v>
       </c>
       <c r="D40" t="n">
-        <v>18.6044478511302</v>
+        <v>17.96847971130879</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.60917966640266</v>
+        <v>50.05630658752171</v>
       </c>
       <c r="D41" t="n">
-        <v>20.52545608815829</v>
+        <v>17.28726097742366</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>52.18447962790859</v>
+        <v>50.11469478073607</v>
       </c>
       <c r="D42" t="n">
-        <v>18.92949211226885</v>
+        <v>16.87593087240719</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.32540731240677</v>
+        <v>50.86962891821779</v>
       </c>
       <c r="D43" t="n">
-        <v>18.07504299478179</v>
+        <v>18.00775081922379</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.36243400846678</v>
+        <v>48.53480485161672</v>
       </c>
       <c r="D44" t="n">
-        <v>16.94826192501345</v>
+        <v>17.93938362242629</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.56325841567907</v>
+        <v>50.63195704917864</v>
       </c>
       <c r="D45" t="n">
-        <v>19.3872562876196</v>
+        <v>19.12794254177346</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.58558565360175</v>
+        <v>46.76368235044938</v>
       </c>
       <c r="D46" t="n">
-        <v>18.48283866245257</v>
+        <v>14.85764040830798</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.32147749610272</v>
+        <v>43.93129469723727</v>
       </c>
       <c r="D47" t="n">
-        <v>19.64069931191123</v>
+        <v>17.2218772670758</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.85226693067673</v>
+        <v>43.63925297250509</v>
       </c>
       <c r="D48" t="n">
-        <v>16.67690076720186</v>
+        <v>17.42699364333303</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.20198622503583</v>
+        <v>42.69222490843637</v>
       </c>
       <c r="D49" t="n">
-        <v>17.1216582459913</v>
+        <v>16.48491632346946</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.12272000236513</v>
+        <v>41.33087881487388</v>
       </c>
       <c r="D50" t="n">
-        <v>18.45042197341886</v>
+        <v>16.63848512228636</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.17672136058253</v>
+        <v>41.26247150979008</v>
       </c>
       <c r="D51" t="n">
-        <v>17.21208062271842</v>
+        <v>15.10426344974614</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>41.67341909749102</v>
+        <v>38.06400408474367</v>
       </c>
       <c r="D52" t="n">
-        <v>17.2847412329632</v>
+        <v>18.13259863271935</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>37.24756008418586</v>
+        <v>40.75380387241977</v>
       </c>
       <c r="D53" t="n">
-        <v>18.89191126612609</v>
+        <v>16.67562684194044</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.40142729889871</v>
+        <v>39.77852559716634</v>
       </c>
       <c r="D54" t="n">
-        <v>18.4170375222442</v>
+        <v>16.2039730119631</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.74193221438468</v>
+        <v>34.63966041447495</v>
       </c>
       <c r="D55" t="n">
-        <v>18.85922396220677</v>
+        <v>16.26185839958998</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>38.40581494706814</v>
+        <v>38.65829199941391</v>
       </c>
       <c r="D56" t="n">
-        <v>18.99116866223463</v>
+        <v>15.79405106154102</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.07543720157254</v>
+        <v>36.5494143387252</v>
       </c>
       <c r="D57" t="n">
-        <v>15.57111379143481</v>
+        <v>16.0729936427709</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.09415747917293</v>
+        <v>30.89061339483205</v>
       </c>
       <c r="D58" t="n">
-        <v>19.79998832952169</v>
+        <v>17.5138014483784</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.40250355929424</v>
+        <v>32.78046611510922</v>
       </c>
       <c r="D59" t="n">
-        <v>17.94112803912562</v>
+        <v>16.91989533144548</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>29.67189485878665</v>
+        <v>33.00827918347344</v>
       </c>
       <c r="D60" t="n">
-        <v>15.5185362907885</v>
+        <v>16.1484102911306</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.52478448318155</v>
+        <v>32.81323021734222</v>
       </c>
       <c r="D61" t="n">
-        <v>17.44871885101944</v>
+        <v>17.28995243608354</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>26.97390905770484</v>
+        <v>34.28545076459268</v>
       </c>
       <c r="D62" t="n">
-        <v>19.48972548016396</v>
+        <v>15.69229222502735</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>31.26102284749631</v>
+        <v>28.8518154651791</v>
       </c>
       <c r="D63" t="n">
-        <v>16.6668241911854</v>
+        <v>15.10136169565219</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.62420890865852</v>
+        <v>26.93002764809766</v>
       </c>
       <c r="D64" t="n">
-        <v>15.72852197187698</v>
+        <v>18.28300440569669</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.24804816533608</v>
+        <v>24.98339067215818</v>
       </c>
       <c r="D65" t="n">
-        <v>20.29586705067398</v>
+        <v>15.4871696516118</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.43404124894241</v>
+        <v>23.28795682353281</v>
       </c>
       <c r="D66" t="n">
-        <v>17.67153448480189</v>
+        <v>18.33176975535005</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.50104045395382</v>
+        <v>24.54543390632895</v>
       </c>
       <c r="D67" t="n">
-        <v>18.28170320802668</v>
+        <v>16.93389356650635</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.4529443992226</v>
+        <v>24.77246676845789</v>
       </c>
       <c r="D68" t="n">
-        <v>16.54817280365409</v>
+        <v>15.16032948045928</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>20.83392361850228</v>
+        <v>20.86361280193076</v>
       </c>
       <c r="D69" t="n">
-        <v>15.8493989234977</v>
+        <v>16.22508455466306</v>
       </c>
     </row>
   </sheetData>
